--- a/exp-trim_eval.xlsx
+++ b/exp-trim_eval.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21500" windowHeight="12880" activeTab="2"/>
+    <workbookView windowWidth="21500" windowHeight="12880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bibtex" sheetId="1" r:id="rId1"/>
     <sheet name="Delicious" sheetId="2" r:id="rId2"/>
     <sheet name="Eurlex" sheetId="3" r:id="rId3"/>
+    <sheet name="Wiki10" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -5116,6 +5117,2513 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Precision@k</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"P@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>86.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"P@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"P@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>53.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="493293272"/>
+        <c:axId val="493289664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="493293272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493289664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493289664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493293272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.801922758163434"/>
+          <c:y val="0.0404699738903394"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PSPrecision@k</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="493293272"/>
+        <c:axId val="493289664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="493293272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493289664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493289664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493293272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>nDCG@k</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>86.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>72.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$F$15:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="493293272"/>
+        <c:axId val="493289664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="493293272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493289664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493289664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493293272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>PSnDCG@k</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"@1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$I$15:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"@3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$K$15:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"@5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>@5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$M$15:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="493293272"/>
+        <c:axId val="493289664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="493293272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493289664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493289664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493293272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -5740,6 +8248,632 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>mAP</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"All"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$O$3:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"tail"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"head"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>head</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Wiki10!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wiki10!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="493293272"/>
+        <c:axId val="493289664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="493293272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493289664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493289664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493293272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.740757541392606"/>
+          <c:y val="0.0248541719502917"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
 </c:chartSpace>
 </file>
 
@@ -10410,7 +13544,207 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14251,7 +17585,2522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18740,6 +24589,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="518160" y="4305300"/>
+        <a:ext cx="3855720" cy="2512060"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622935</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4737735" y="4241800"/>
+        <a:ext cx="4541520" cy="2512060"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="563880" y="7086600"/>
+        <a:ext cx="3855720" cy="2519680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5486400" y="7086600"/>
+        <a:ext cx="3779520" cy="2519680"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595630</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>668655</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9511030" y="2045335"/>
+        <a:ext cx="2816225" cy="2588895"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -19000,7 +25004,7 @@
   <sheetPr/>
   <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="F26" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
@@ -19831,7 +25835,7 @@
   <sheetPr/>
   <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:H12"/>
     </sheetView>
   </sheetViews>
@@ -20662,7 +26666,7 @@
   <sheetPr/>
   <dimension ref="A2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3:O12"/>
     </sheetView>
   </sheetViews>
@@ -21486,4 +27490,835 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>86.34</v>
+      </c>
+      <c r="C3">
+        <v>77.9</v>
+      </c>
+      <c r="D3">
+        <v>68.56</v>
+      </c>
+      <c r="E3">
+        <v>60.21</v>
+      </c>
+      <c r="F3">
+        <v>53.22</v>
+      </c>
+      <c r="I3">
+        <v>22.7</v>
+      </c>
+      <c r="J3">
+        <v>20.07</v>
+      </c>
+      <c r="K3">
+        <v>17.3</v>
+      </c>
+      <c r="L3">
+        <v>14.75</v>
+      </c>
+      <c r="M3">
+        <v>12.61</v>
+      </c>
+      <c r="O3">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+      <c r="B4">
+        <v>86.34</v>
+      </c>
+      <c r="C4">
+        <v>78.33</v>
+      </c>
+      <c r="D4">
+        <v>69.59</v>
+      </c>
+      <c r="E4">
+        <v>61.65</v>
+      </c>
+      <c r="F4">
+        <v>54.65</v>
+      </c>
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+      <c r="H4">
+        <v>2.39</v>
+      </c>
+      <c r="I4">
+        <v>22.7</v>
+      </c>
+      <c r="J4">
+        <v>20.17</v>
+      </c>
+      <c r="K4">
+        <v>17.58</v>
+      </c>
+      <c r="L4">
+        <v>15.14</v>
+      </c>
+      <c r="M4">
+        <v>13.01</v>
+      </c>
+      <c r="O4">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="B5">
+        <v>86.31</v>
+      </c>
+      <c r="C5">
+        <v>78.53</v>
+      </c>
+      <c r="D5">
+        <v>70.16</v>
+      </c>
+      <c r="E5">
+        <v>62.38</v>
+      </c>
+      <c r="F5">
+        <v>55.55</v>
+      </c>
+      <c r="G5">
+        <v>0.36</v>
+      </c>
+      <c r="H5">
+        <v>4.52</v>
+      </c>
+      <c r="I5">
+        <v>22.64</v>
+      </c>
+      <c r="J5">
+        <v>20.19</v>
+      </c>
+      <c r="K5">
+        <v>17.69</v>
+      </c>
+      <c r="L5">
+        <v>15.29</v>
+      </c>
+      <c r="M5">
+        <v>13.21</v>
+      </c>
+      <c r="O5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>0.3</v>
+      </c>
+      <c r="B6">
+        <v>86.31</v>
+      </c>
+      <c r="C6">
+        <v>78.79</v>
+      </c>
+      <c r="D6">
+        <v>70.66</v>
+      </c>
+      <c r="E6">
+        <v>63.06</v>
+      </c>
+      <c r="F6">
+        <v>56.29</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>8.3</v>
+      </c>
+      <c r="I6">
+        <v>22.62</v>
+      </c>
+      <c r="J6">
+        <v>20.21</v>
+      </c>
+      <c r="K6">
+        <v>17.73</v>
+      </c>
+      <c r="L6">
+        <v>15.37</v>
+      </c>
+      <c r="M6">
+        <v>13.3</v>
+      </c>
+      <c r="O6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>0.4</v>
+      </c>
+      <c r="B7">
+        <v>86.29</v>
+      </c>
+      <c r="C7">
+        <v>78.82</v>
+      </c>
+      <c r="D7">
+        <v>70.75</v>
+      </c>
+      <c r="E7">
+        <v>63.21</v>
+      </c>
+      <c r="F7">
+        <v>56.57</v>
+      </c>
+      <c r="G7">
+        <v>0.66</v>
+      </c>
+      <c r="H7">
+        <v>13.86</v>
+      </c>
+      <c r="I7">
+        <v>22.5</v>
+      </c>
+      <c r="J7">
+        <v>20.07</v>
+      </c>
+      <c r="K7">
+        <v>17.52</v>
+      </c>
+      <c r="L7">
+        <v>15.14</v>
+      </c>
+      <c r="M7">
+        <v>13.07</v>
+      </c>
+      <c r="O7">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>0.5</v>
+      </c>
+      <c r="B8">
+        <v>86.19</v>
+      </c>
+      <c r="C8">
+        <v>78.57</v>
+      </c>
+      <c r="D8">
+        <v>70.25</v>
+      </c>
+      <c r="E8">
+        <v>62.68</v>
+      </c>
+      <c r="F8">
+        <v>56.12</v>
+      </c>
+      <c r="G8">
+        <v>0.84</v>
+      </c>
+      <c r="H8">
+        <v>20.24</v>
+      </c>
+      <c r="I8">
+        <v>22.1</v>
+      </c>
+      <c r="J8">
+        <v>19.51</v>
+      </c>
+      <c r="K8">
+        <v>16.84</v>
+      </c>
+      <c r="L8">
+        <v>14.44</v>
+      </c>
+      <c r="M8">
+        <v>12.4</v>
+      </c>
+      <c r="O8">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>0.6</v>
+      </c>
+      <c r="B9">
+        <v>85.99</v>
+      </c>
+      <c r="C9">
+        <v>77.85</v>
+      </c>
+      <c r="D9">
+        <v>69.58</v>
+      </c>
+      <c r="E9">
+        <v>62.14</v>
+      </c>
+      <c r="F9">
+        <v>56.05</v>
+      </c>
+      <c r="G9">
+        <v>0.98</v>
+      </c>
+      <c r="H9">
+        <v>27.75</v>
+      </c>
+      <c r="I9">
+        <v>21.58</v>
+      </c>
+      <c r="J9">
+        <v>18.66</v>
+      </c>
+      <c r="K9">
+        <v>15.95</v>
+      </c>
+      <c r="L9">
+        <v>13.6</v>
+      </c>
+      <c r="M9">
+        <v>11.72</v>
+      </c>
+      <c r="O9">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>0.7</v>
+      </c>
+      <c r="B10">
+        <v>84.78</v>
+      </c>
+      <c r="C10">
+        <v>76.43</v>
+      </c>
+      <c r="D10">
+        <v>67.88</v>
+      </c>
+      <c r="E10">
+        <v>60.43</v>
+      </c>
+      <c r="F10">
+        <v>54.65</v>
+      </c>
+      <c r="G10">
+        <v>1.07</v>
+      </c>
+      <c r="H10">
+        <v>36.25</v>
+      </c>
+      <c r="I10">
+        <v>20.52</v>
+      </c>
+      <c r="J10">
+        <v>17.61</v>
+      </c>
+      <c r="K10">
+        <v>14.84</v>
+      </c>
+      <c r="L10">
+        <v>12.51</v>
+      </c>
+      <c r="M10">
+        <v>10.76</v>
+      </c>
+      <c r="O10">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>0.8</v>
+      </c>
+      <c r="B11">
+        <v>82.98</v>
+      </c>
+      <c r="C11">
+        <v>72.51</v>
+      </c>
+      <c r="D11">
+        <v>62.85</v>
+      </c>
+      <c r="E11">
+        <v>55.79</v>
+      </c>
+      <c r="F11">
+        <v>50.06</v>
+      </c>
+      <c r="G11">
+        <v>1.13</v>
+      </c>
+      <c r="H11">
+        <v>45.2</v>
+      </c>
+      <c r="I11">
+        <v>18.77</v>
+      </c>
+      <c r="J11">
+        <v>15.6</v>
+      </c>
+      <c r="K11">
+        <v>12.83</v>
+      </c>
+      <c r="L11">
+        <v>10.8</v>
+      </c>
+      <c r="M11">
+        <v>9.22</v>
+      </c>
+      <c r="O11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>0.9</v>
+      </c>
+      <c r="B12">
+        <v>80.79</v>
+      </c>
+      <c r="C12">
+        <v>63.96</v>
+      </c>
+      <c r="D12">
+        <v>53.56</v>
+      </c>
+      <c r="E12">
+        <v>44.97</v>
+      </c>
+      <c r="F12">
+        <v>38.53</v>
+      </c>
+      <c r="G12">
+        <v>1.17</v>
+      </c>
+      <c r="H12">
+        <v>49.8</v>
+      </c>
+      <c r="I12">
+        <v>16.79</v>
+      </c>
+      <c r="J12">
+        <v>12.78</v>
+      </c>
+      <c r="K12">
+        <v>10.16</v>
+      </c>
+      <c r="L12">
+        <v>8.1</v>
+      </c>
+      <c r="M12">
+        <v>6.6</v>
+      </c>
+      <c r="O12">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>86.34</v>
+      </c>
+      <c r="C15">
+        <v>79.81</v>
+      </c>
+      <c r="D15">
+        <v>72.79</v>
+      </c>
+      <c r="E15">
+        <v>66.47</v>
+      </c>
+      <c r="F15">
+        <v>61.08</v>
+      </c>
+      <c r="I15">
+        <v>22.7</v>
+      </c>
+      <c r="J15">
+        <v>20.64</v>
+      </c>
+      <c r="K15">
+        <v>18.48</v>
+      </c>
+      <c r="L15">
+        <v>16.46</v>
+      </c>
+      <c r="M15">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>0.1</v>
+      </c>
+      <c r="B16">
+        <v>86.34</v>
+      </c>
+      <c r="C16">
+        <v>80.14</v>
+      </c>
+      <c r="D16">
+        <v>73.57</v>
+      </c>
+      <c r="E16">
+        <v>67.57</v>
+      </c>
+      <c r="F16">
+        <v>62.21</v>
+      </c>
+      <c r="I16">
+        <v>22.7</v>
+      </c>
+      <c r="J16">
+        <v>20.71</v>
+      </c>
+      <c r="K16">
+        <v>18.7</v>
+      </c>
+      <c r="L16">
+        <v>16.76</v>
+      </c>
+      <c r="M16">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>0.2</v>
+      </c>
+      <c r="B17">
+        <v>86.31</v>
+      </c>
+      <c r="C17">
+        <v>80.29</v>
+      </c>
+      <c r="D17">
+        <v>73.99</v>
+      </c>
+      <c r="E17">
+        <v>68.12</v>
+      </c>
+      <c r="F17">
+        <v>62.9</v>
+      </c>
+      <c r="I17">
+        <v>22.64</v>
+      </c>
+      <c r="J17">
+        <v>20.72</v>
+      </c>
+      <c r="K17">
+        <v>18.77</v>
+      </c>
+      <c r="L17">
+        <v>16.87</v>
+      </c>
+      <c r="M17">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>0.3</v>
+      </c>
+      <c r="B18">
+        <v>86.31</v>
+      </c>
+      <c r="C18">
+        <v>80.49</v>
+      </c>
+      <c r="D18">
+        <v>74.38</v>
+      </c>
+      <c r="E18">
+        <v>68.65</v>
+      </c>
+      <c r="F18">
+        <v>63.49</v>
+      </c>
+      <c r="I18">
+        <v>22.62</v>
+      </c>
+      <c r="J18">
+        <v>20.73</v>
+      </c>
+      <c r="K18">
+        <v>18.8</v>
+      </c>
+      <c r="L18">
+        <v>16.93</v>
+      </c>
+      <c r="M18">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>0.4</v>
+      </c>
+      <c r="B19">
+        <v>86.29</v>
+      </c>
+      <c r="C19">
+        <v>80.51</v>
+      </c>
+      <c r="D19">
+        <v>74.44</v>
+      </c>
+      <c r="E19">
+        <v>68.76</v>
+      </c>
+      <c r="F19">
+        <v>63.69</v>
+      </c>
+      <c r="I19">
+        <v>22.5</v>
+      </c>
+      <c r="J19">
+        <v>20.59</v>
+      </c>
+      <c r="K19">
+        <v>18.61</v>
+      </c>
+      <c r="L19">
+        <v>16.72</v>
+      </c>
+      <c r="M19">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>0.5</v>
+      </c>
+      <c r="B20">
+        <v>86.19</v>
+      </c>
+      <c r="C20">
+        <v>80.3</v>
+      </c>
+      <c r="D20">
+        <v>74.04</v>
+      </c>
+      <c r="E20">
+        <v>68.32</v>
+      </c>
+      <c r="F20">
+        <v>63.28</v>
+      </c>
+      <c r="I20">
+        <v>22.1</v>
+      </c>
+      <c r="J20">
+        <v>20.07</v>
+      </c>
+      <c r="K20">
+        <v>17.98</v>
+      </c>
+      <c r="L20">
+        <v>16.07</v>
+      </c>
+      <c r="M20">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>0.6</v>
+      </c>
+      <c r="B21">
+        <v>85.99</v>
+      </c>
+      <c r="C21">
+        <v>79.69</v>
+      </c>
+      <c r="D21">
+        <v>73.44</v>
+      </c>
+      <c r="E21">
+        <v>67.79</v>
+      </c>
+      <c r="F21">
+        <v>63.07</v>
+      </c>
+      <c r="I21">
+        <v>21.58</v>
+      </c>
+      <c r="J21">
+        <v>19.29</v>
+      </c>
+      <c r="K21">
+        <v>17.16</v>
+      </c>
+      <c r="L21">
+        <v>15.26</v>
+      </c>
+      <c r="M21">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>0.7</v>
+      </c>
+      <c r="B22">
+        <v>84.78</v>
+      </c>
+      <c r="C22">
+        <v>78.32</v>
+      </c>
+      <c r="D22">
+        <v>71.86</v>
+      </c>
+      <c r="E22">
+        <v>66.19</v>
+      </c>
+      <c r="F22">
+        <v>61.65</v>
+      </c>
+      <c r="I22">
+        <v>20.52</v>
+      </c>
+      <c r="J22">
+        <v>18.23</v>
+      </c>
+      <c r="K22">
+        <v>16.06</v>
+      </c>
+      <c r="L22">
+        <v>14.18</v>
+      </c>
+      <c r="M22">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>0.8</v>
+      </c>
+      <c r="B23">
+        <v>82.98</v>
+      </c>
+      <c r="C23">
+        <v>74.88</v>
+      </c>
+      <c r="D23">
+        <v>67.53</v>
+      </c>
+      <c r="E23">
+        <v>61.99</v>
+      </c>
+      <c r="F23">
+        <v>57.43</v>
+      </c>
+      <c r="I23">
+        <v>18.77</v>
+      </c>
+      <c r="J23">
+        <v>16.28</v>
+      </c>
+      <c r="K23">
+        <v>14.1</v>
+      </c>
+      <c r="L23">
+        <v>12.41</v>
+      </c>
+      <c r="M23">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>0.9</v>
+      </c>
+      <c r="B24">
+        <v>80.79</v>
+      </c>
+      <c r="C24">
+        <v>67.77</v>
+      </c>
+      <c r="D24">
+        <v>59.56</v>
+      </c>
+      <c r="E24">
+        <v>52.77</v>
+      </c>
+      <c r="F24">
+        <v>47.53</v>
+      </c>
+      <c r="I24">
+        <v>16.79</v>
+      </c>
+      <c r="J24">
+        <v>13.64</v>
+      </c>
+      <c r="K24">
+        <v>11.52</v>
+      </c>
+      <c r="L24">
+        <v>9.79</v>
+      </c>
+      <c r="M24">
+        <v>8.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>